--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_NhatQuang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="42" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="82">
   <si>
     <t>STT</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>KS</t>
+  </si>
+  <si>
+    <t>NQ.1.00.00005.270416</t>
+  </si>
+  <si>
+    <t>Nhật Quang</t>
   </si>
 </sst>
 </file>
@@ -2846,8 +2852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2913,7 +2919,7 @@
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
       <c r="E2" s="79" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F2" s="79"/>
       <c r="G2" s="4"/>
@@ -3171,16 +3177,30 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="61">
+        <v>44659</v>
+      </c>
       <c r="C8" s="61"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+      <c r="D8" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="38">
+        <v>866104028885690</v>
+      </c>
       <c r="F8" s="48"/>
-      <c r="G8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H8" s="48"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="I8" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
       <c r="N8" s="1"/>
@@ -6492,7 +6512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_NhatQuang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="42" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="92">
   <si>
     <t>STT</t>
   </si>
@@ -286,6 +286,36 @@
   </si>
   <si>
     <t>Nhật Quang</t>
+  </si>
+  <si>
+    <t>LE.2.00.---25.200220</t>
+  </si>
+  <si>
+    <t>NQ.2.00.00001.200417</t>
+  </si>
+  <si>
+    <t>NQ.1.00.00001.270416</t>
+  </si>
+  <si>
+    <t>SE.3.00.---01.120817</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180115</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>SE.4.00.---05.200416</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
   </si>
 </sst>
 </file>
@@ -1042,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1294,7 @@
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="38">
         <v>868183038488693</v>
       </c>
       <c r="F6" s="37"/>
@@ -1312,23 +1342,49 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="37"/>
+      <c r="B7" s="61">
+        <v>44677</v>
+      </c>
+      <c r="C7" s="61">
+        <v>44678</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="38">
+        <v>868183038025933</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H7" s="48"/>
-      <c r="I7" s="53"/>
+      <c r="I7" s="53" t="s">
+        <v>72</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="K7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
       <c r="U7" s="68"/>
@@ -1712,7 +1768,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2181,7 +2237,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2245,7 +2301,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2852,8 +2908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3180,7 +3236,9 @@
       <c r="B8" s="61">
         <v>44659</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44678</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>69</v>
       </c>
@@ -3202,12 +3260,22 @@
         <v>80</v>
       </c>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
       <c r="U8" s="68"/>
@@ -3220,23 +3288,49 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="37"/>
+      <c r="B9" s="61">
+        <v>44677</v>
+      </c>
+      <c r="C9" s="61">
+        <v>44678</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="38">
+        <v>863586032901765</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H9" s="48"/>
-      <c r="I9" s="53"/>
+      <c r="I9" s="53" t="s">
+        <v>72</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="K9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
       <c r="U9" s="68"/>
@@ -3249,23 +3343,49 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="61">
+        <v>44677</v>
+      </c>
+      <c r="C10" s="61">
+        <v>44678</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="38">
+        <v>866104022270360</v>
+      </c>
       <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+      <c r="G10" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H10" s="48"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
       <c r="U10" s="68"/>
@@ -3278,23 +3398,49 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
+      <c r="B11" s="61">
+        <v>44677</v>
+      </c>
+      <c r="C11" s="61">
+        <v>44678</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="38">
+        <v>866104028912957</v>
+      </c>
       <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H11" s="48"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="M11" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
+      <c r="O11" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
       <c r="U11" s="68"/>
@@ -3307,23 +3453,49 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
+      <c r="B12" s="61">
+        <v>44677</v>
+      </c>
+      <c r="C12" s="61">
+        <v>44678</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="38">
+        <v>868926033968709</v>
+      </c>
       <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="G12" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H12" s="48"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="M12" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
+      <c r="O12" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
       <c r="U12" s="67" t="s">
@@ -3338,23 +3510,51 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
+      <c r="B13" s="61">
+        <v>44677</v>
+      </c>
+      <c r="C13" s="61">
+        <v>44678</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="38">
+        <v>866104022167947</v>
+      </c>
       <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="G13" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H13" s="48"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="I13" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="37"/>
+      <c r="O13" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
       <c r="U13" s="68"/>
@@ -3562,7 +3762,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -3594,7 +3794,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -3807,7 +4007,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -4031,7 +4231,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4095,7 +4295,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4213,7 +4413,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -6512,8 +6712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6780,23 +6980,51 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="61">
+        <v>44677</v>
+      </c>
+      <c r="C7" s="61">
+        <v>44678</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="38">
+        <v>861694037959077</v>
+      </c>
       <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H7" s="48"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="I7" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
       <c r="U7" s="68"/>
@@ -6809,23 +7037,51 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+      <c r="B8" s="61">
+        <v>44677</v>
+      </c>
+      <c r="C8" s="61">
+        <v>44678</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="38">
+        <v>866104022191129</v>
+      </c>
       <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H8" s="48"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="I8" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
       <c r="U8" s="68"/>
@@ -6838,23 +7094,51 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="37"/>
+      <c r="B9" s="61">
+        <v>44677</v>
+      </c>
+      <c r="C9" s="61">
+        <v>44678</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="38">
+        <v>866104022178803</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H9" s="48"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="I9" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
       <c r="U9" s="68"/>
@@ -6867,23 +7151,53 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="53"/>
+      <c r="B10" s="61">
+        <v>44677</v>
+      </c>
+      <c r="C10" s="61">
+        <v>44678</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="38">
+        <v>862631034748219</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>72</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="K10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
       <c r="U10" s="68"/>
@@ -6896,23 +7210,51 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
+      <c r="B11" s="61">
+        <v>44677</v>
+      </c>
+      <c r="C11" s="61">
+        <v>44678</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="38">
+        <v>862631039271365</v>
+      </c>
       <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H11" s="48"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="I11" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
+      <c r="O11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
       <c r="U11" s="68"/>
@@ -7180,7 +7522,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -7212,7 +7554,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -7425,7 +7767,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -7649,7 +7991,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -7713,7 +8055,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -7831,7 +8173,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W41" s="13"/>
     </row>
